--- a/premiere_league_attendance_2022_2023.xlsx
+++ b/premiere_league_attendance_2022_2023.xlsx
@@ -744,10 +744,10 @@
   <dimension ref="A1:H380"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="30.56"/>
@@ -928,6 +928,9 @@
       <c r="E7" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="F7" s="0" t="n">
+        <v>39201</v>
+      </c>
       <c r="G7" s="0" t="s">
         <v>31</v>
       </c>
@@ -976,6 +979,9 @@
       </c>
       <c r="E9" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>32183</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>38</v>
